--- a/data/CS1/case18_1/case18_1_2040.xlsx
+++ b/data/CS1/case18_1/case18_1_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\CS1\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6928BD6-ABCC-4F8A-8B85-CB76E3AFE45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9560C0C4-57BE-4F59-9A07-734EC858A6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="20" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27528,7 +27528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -44680,7 +44680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CACB78C-E034-4D5F-9D9E-330237C5FD39}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
